--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -1216,13 +1216,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomRight" state="frozen" topLeftCell="F4" xSplit="2" ySplit="3"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="L2" pane="bottomRight" sqref="L2"/>
+      <selection activeCell="J9" pane="bottomRight" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="J14" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K14" s="13" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="J21" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K21" s="15" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="J29" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K29" s="15" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="J38" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K38" s="13" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="J41" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K41" s="15" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="J43" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K43" s="15" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="J47" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K47" s="15" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="J49" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K49" s="15" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="J50" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K50" s="13" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="J53" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K53" s="15" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="J55" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K55" s="15" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="J61" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K61" s="15" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="J63" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K63" s="15" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="J66" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K66" s="14" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="J67" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K67" s="12" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="J69" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K69" s="12" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="J70" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K70" s="14" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="J71" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K71" s="12" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="J72" s="14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K72" s="14" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="J75" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K75" s="12" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="J77" s="12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K77" s="12" t="inlineStr">
@@ -6949,324 +6949,6 @@
       <c r="C85" s="1" t="inlineStr">
         <is>
           <t>Optional</t>
-        </is>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214">
-      <c r="J214" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221">
-      <c r="J221" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229">
-      <c r="J229" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238">
-      <c r="J238" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241">
-      <c r="J241" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="242"/>
-    <row r="243">
-      <c r="J243" s="1" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-    </row>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247">
-      <c r="J247" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="248"/>
-    <row r="249">
-      <c r="J249" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="J250" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253">
-      <c r="J253" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="254"/>
-    <row r="255">
-      <c r="J255" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261">
-      <c r="J261" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="262"/>
-    <row r="263">
-      <c r="J263" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-    </row>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266">
-      <c r="J266" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="J267" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="268"/>
-    <row r="269">
-      <c r="J269" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="J270" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="J271" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="J272" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275">
-      <c r="J275" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="276"/>
-    <row r="277">
-      <c r="J277" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>

--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -101,6 +101,12 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="9">
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -429,6 +435,18 @@
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2242,7 +2260,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" s="12" t="inlineStr">
+      <c r="J14" s="50" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -2722,7 +2740,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" s="14" t="inlineStr">
+      <c r="J21" s="51" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -3286,7 +3304,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J29" s="14" t="inlineStr">
+      <c r="J29" s="51" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -3882,7 +3900,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J38" s="12" t="inlineStr">
+      <c r="J38" s="50" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -4090,7 +4108,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J41" s="14" t="inlineStr">
+      <c r="J41" s="51" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -4230,7 +4248,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J43" s="14" t="inlineStr">
+      <c r="J43" s="51" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4502,7 +4520,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J47" s="14" t="inlineStr">
+      <c r="J47" s="51" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4634,7 +4652,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J49" s="14" t="inlineStr">
+      <c r="J49" s="51" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -4706,7 +4724,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J50" s="12" t="inlineStr">
+      <c r="J50" s="50" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -4914,7 +4932,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J53" s="14" t="inlineStr">
+      <c r="J53" s="51" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -5066,7 +5084,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J55" s="14" t="inlineStr">
+      <c r="J55" s="51" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -5474,7 +5492,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J61" s="14" t="inlineStr">
+      <c r="J61" s="51" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -5598,7 +5616,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J63" s="14" t="inlineStr">
+      <c r="J63" s="51" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -5830,7 +5848,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J66" s="14" t="inlineStr">
+      <c r="J66" s="51" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -5910,7 +5928,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J67" s="12" t="inlineStr">
+      <c r="J67" s="50" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -6070,7 +6088,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J69" s="12" t="inlineStr">
+      <c r="J69" s="50" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -6150,7 +6168,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J70" s="14" t="inlineStr">
+      <c r="J70" s="51" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -6230,7 +6248,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J71" s="12" t="inlineStr">
+      <c r="J71" s="50" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -6310,7 +6328,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J72" s="14" t="inlineStr">
+      <c r="J72" s="51" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -6550,7 +6568,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J75" s="12" t="inlineStr">
+      <c r="J75" s="50" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -6710,7 +6728,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J77" s="12" t="inlineStr">
+      <c r="J77" s="50" t="inlineStr">
         <is>
           <t>30</t>
         </is>

--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAP\SAP_Projects\SME\SME WIP\Ramp-up Plan\Status Tracking\Team-Ramp-up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9BDB8-AA86-4ECF-B4AE-EA64ED32DA83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A1CCF-97BD-42E8-ABA2-0F009FE0D22C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2311,10 +2311,10 @@
   <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2327,7 +2327,7 @@
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.1328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.46484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1328125" style="1" customWidth="1"/>
     <col min="11" max="14" width="18.1328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.86328125" style="1" customWidth="1"/>
     <col min="16" max="18" width="18.1328125" style="1" customWidth="1"/>

--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -113,6 +113,9 @@
     </font>
     <font>
       <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="10">
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -436,6 +439,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="8" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2083,7 +2098,7 @@
         </is>
       </c>
       <c r="J12" s="25" t="n"/>
-      <c r="K12" s="33" t="inlineStr">
+      <c r="K12" s="41" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -2159,7 +2174,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K13" s="29" t="inlineStr">
+      <c r="K13" s="42" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -2247,7 +2262,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K14" s="33" t="inlineStr">
+      <c r="K14" s="41" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -2335,7 +2350,7 @@
         </is>
       </c>
       <c r="J15" s="27" t="n"/>
-      <c r="K15" s="34" t="inlineStr">
+      <c r="K15" s="43" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -2403,7 +2418,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K16" s="33" t="inlineStr">
+      <c r="K16" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -2727,7 +2742,7 @@
           <t>50</t>
         </is>
       </c>
-      <c r="K21" s="34" t="inlineStr">
+      <c r="K21" s="43" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -2867,7 +2882,7 @@
         </is>
       </c>
       <c r="J23" s="27" t="n"/>
-      <c r="K23" s="34" t="inlineStr">
+      <c r="K23" s="43" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -2947,7 +2962,7 @@
         </is>
       </c>
       <c r="J24" s="25" t="n"/>
-      <c r="K24" s="33" t="inlineStr">
+      <c r="K24" s="41" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -3071,7 +3086,7 @@
         </is>
       </c>
       <c r="J26" s="25" t="n"/>
-      <c r="K26" s="33" t="inlineStr">
+      <c r="K26" s="41" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -3219,7 +3234,7 @@
         </is>
       </c>
       <c r="J28" s="25" t="n"/>
-      <c r="K28" s="33" t="inlineStr">
+      <c r="K28" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -3291,7 +3306,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K29" s="34" t="inlineStr">
+      <c r="K29" s="43" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -3355,7 +3370,7 @@
         </is>
       </c>
       <c r="J30" s="25" t="n"/>
-      <c r="K30" s="33" t="inlineStr">
+      <c r="K30" s="41" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -3503,7 +3518,7 @@
         </is>
       </c>
       <c r="J32" s="25" t="n"/>
-      <c r="K32" s="33" t="inlineStr">
+      <c r="K32" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -3567,7 +3582,7 @@
         </is>
       </c>
       <c r="J33" s="27" t="n"/>
-      <c r="K33" s="34" t="inlineStr">
+      <c r="K33" s="43" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -3739,7 +3754,7 @@
         </is>
       </c>
       <c r="J36" s="25" t="n"/>
-      <c r="K36" s="33" t="inlineStr">
+      <c r="K36" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -3887,7 +3902,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="K38" s="33" t="inlineStr">
+      <c r="K38" s="41" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -4163,7 +4178,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K42" s="33" t="inlineStr">
+      <c r="K42" s="41" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4235,7 +4250,7 @@
           <t>80</t>
         </is>
       </c>
-      <c r="K43" s="34" t="inlineStr">
+      <c r="K43" s="43" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -4303,7 +4318,7 @@
         </is>
       </c>
       <c r="J44" s="25" t="n"/>
-      <c r="K44" s="33" t="inlineStr">
+      <c r="K44" s="41" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4443,7 +4458,7 @@
         </is>
       </c>
       <c r="J46" s="25" t="n"/>
-      <c r="K46" s="33" t="inlineStr">
+      <c r="K46" s="41" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -4639,7 +4654,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K49" s="34" t="inlineStr">
+      <c r="K49" s="43" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4847,7 +4862,7 @@
         </is>
       </c>
       <c r="J52" s="25" t="n"/>
-      <c r="K52" s="33" t="inlineStr">
+      <c r="K52" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -4919,7 +4934,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="K53" s="34" t="inlineStr">
+      <c r="K53" s="43" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4999,7 +5014,7 @@
         </is>
       </c>
       <c r="J54" s="25" t="n"/>
-      <c r="K54" s="33" t="inlineStr">
+      <c r="K54" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -5139,7 +5154,7 @@
         </is>
       </c>
       <c r="J56" s="25" t="n"/>
-      <c r="K56" s="33" t="inlineStr">
+      <c r="K56" s="41" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -5271,7 +5286,7 @@
         </is>
       </c>
       <c r="J58" s="25" t="n"/>
-      <c r="K58" s="33" t="inlineStr">
+      <c r="K58" s="41" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -5335,7 +5350,7 @@
         </is>
       </c>
       <c r="J59" s="27" t="n"/>
-      <c r="K59" s="34" t="inlineStr">
+      <c r="K59" s="43" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -5479,7 +5494,7 @@
           <t>60</t>
         </is>
       </c>
-      <c r="K61" s="34" t="inlineStr">
+      <c r="K61" s="43" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -5603,7 +5618,7 @@
           <t>90</t>
         </is>
       </c>
-      <c r="K63" s="34" t="inlineStr">
+      <c r="K63" s="43" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -5683,7 +5698,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K64" s="34" t="inlineStr">
+      <c r="K64" s="43" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -5913,7 +5928,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="K67" s="29" t="inlineStr">
+      <c r="K67" s="42" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -5993,7 +6008,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K68" s="31" t="inlineStr">
+      <c r="K68" s="44" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -6233,7 +6248,7 @@
           <t>50</t>
         </is>
       </c>
-      <c r="K71" s="29" t="inlineStr">
+      <c r="K71" s="42" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -6713,7 +6728,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K77" s="29" t="inlineStr">
+      <c r="K77" s="42" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -6793,7 +6808,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K78" s="31" t="inlineStr">
+      <c r="K78" s="44" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -6873,7 +6888,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K79" s="29" t="inlineStr">
+      <c r="K79" s="42" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -6953,7 +6968,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K80" s="31" t="inlineStr">
+      <c r="K80" s="44" t="inlineStr">
         <is>
           <t>50</t>
         </is>

--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap.sharepoint.com/teams/X4PlatformCNTeamRamp-up/Shared Documents/General/Tracking List/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAP\SAP_Projects\SME\SME WIP\Ramp-up Plan\Status Tracking\Team-Ramp-up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="5_{59082984-9A5F-49CC-B90D-3BA22979DD94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{ED1C041B-DC95-4D99-A20E-C5197072BB8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5D7EC3-3FBE-4936-8EC9-8EEDDBFD1FDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3022" yWindow="442" windowWidth="15068" windowHeight="9353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="385">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -232,48 +232,48 @@
     <t>X*</t>
   </si>
   <si>
+    <t>I029546</t>
+  </si>
+  <si>
+    <t>Zhang Meng</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Yuedong Chen</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>I031427</t>
+  </si>
+  <si>
+    <t>Ingrid Wang</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>Quality Expert</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>I029546</t>
-  </si>
-  <si>
-    <t>Zhang Meng</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
-    <t>Meng</t>
-  </si>
-  <si>
-    <t>Yuedong Chen</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>I031427</t>
-  </si>
-  <si>
-    <t>Ingrid Wang</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>Xu</t>
-  </si>
-  <si>
-    <t>Ingrid</t>
-  </si>
-  <si>
-    <t>Quality Expert</t>
-  </si>
-  <si>
-    <t>QS</t>
-  </si>
-  <si>
     <t>I052065</t>
   </si>
   <si>
@@ -406,45 +406,48 @@
     <t>Extra</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>I015290</t>
+  </si>
+  <si>
+    <t>Kevin Zhang</t>
+  </si>
+  <si>
+    <t>Zhonghua</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Meng Zhang</t>
+  </si>
+  <si>
+    <t>I065754</t>
+  </si>
+  <si>
+    <t>Ivan Sheng</t>
+  </si>
+  <si>
+    <t>Sheng</t>
+  </si>
+  <si>
+    <t>Yiwei</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
-    <t>I015290</t>
-  </si>
-  <si>
-    <t>Kevin Zhang</t>
-  </si>
-  <si>
-    <t>Zhonghua</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Meng Zhang</t>
-  </si>
-  <si>
-    <t>I065754</t>
-  </si>
-  <si>
-    <t>Ivan Sheng</t>
-  </si>
-  <si>
-    <t>Sheng</t>
-  </si>
-  <si>
-    <t>Yiwei</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Senior Developer</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
     <t>I068662</t>
   </si>
   <si>
@@ -535,369 +538,366 @@
     <t>Xiongjun</t>
   </si>
   <si>
+    <t>I075064</t>
+  </si>
+  <si>
+    <t>Abby Cui</t>
+  </si>
+  <si>
+    <t>Cui</t>
+  </si>
+  <si>
+    <t>Hongxia</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>I075066</t>
+  </si>
+  <si>
+    <t>Liu Ying</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Ying</t>
+  </si>
+  <si>
+    <t>I076353</t>
+  </si>
+  <si>
+    <t>Cham Xu</t>
+  </si>
+  <si>
+    <t>Qian</t>
+  </si>
+  <si>
+    <t>Cham</t>
+  </si>
+  <si>
+    <t>I077230</t>
+  </si>
+  <si>
+    <t>Gordon Liu</t>
+  </si>
+  <si>
+    <t>Jinguo</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>I300463</t>
+  </si>
+  <si>
+    <t>Zachary Li</t>
+  </si>
+  <si>
+    <t>Yixuan</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>I300974</t>
+  </si>
+  <si>
+    <t>Helene Chen</t>
+  </si>
+  <si>
+    <t>Xiaoyi</t>
+  </si>
+  <si>
+    <t>Helene</t>
+  </si>
+  <si>
+    <t>Senior User Experience Design Specialist</t>
+  </si>
+  <si>
+    <t>I306429</t>
+  </si>
+  <si>
+    <t>Telford Zhao</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>Tiefu</t>
+  </si>
+  <si>
+    <t>Telford</t>
+  </si>
+  <si>
+    <t>I308164</t>
+  </si>
+  <si>
+    <t>Roy Shao</t>
+  </si>
+  <si>
+    <t>Shao</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Quality Specialist</t>
+  </si>
+  <si>
+    <t>I308454</t>
+  </si>
+  <si>
+    <t>Cao Li</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>I309938</t>
+  </si>
+  <si>
+    <t>Alex Li</t>
+  </si>
+  <si>
+    <t>Zhen</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>I313530</t>
+  </si>
+  <si>
+    <t>Zhao Luyi</t>
+  </si>
+  <si>
+    <t>Luyi</t>
+  </si>
+  <si>
+    <t>I322858</t>
+  </si>
+  <si>
+    <t>Li Linju</t>
+  </si>
+  <si>
+    <t>Linju</t>
+  </si>
+  <si>
+    <t>I323866</t>
+  </si>
+  <si>
+    <t>Chen Qi</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>I324508</t>
+  </si>
+  <si>
+    <t>Felix Huang</t>
+  </si>
+  <si>
+    <t>Zehao</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>I324714</t>
+  </si>
+  <si>
+    <t>Meng Di</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>User Assistance Developer Associate</t>
+  </si>
+  <si>
+    <t>I326827</t>
+  </si>
+  <si>
+    <t>Jeremy Wu</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Zhenhao</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>I075064</t>
-  </si>
-  <si>
-    <t>Abby Cui</t>
-  </si>
-  <si>
-    <t>Cui</t>
-  </si>
-  <si>
-    <t>Hongxia</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>I075066</t>
-  </si>
-  <si>
-    <t>Liu Ying</t>
-  </si>
-  <si>
-    <t>Liu</t>
-  </si>
-  <si>
-    <t>Ying</t>
-  </si>
-  <si>
-    <t>I076353</t>
-  </si>
-  <si>
-    <t>Cham Xu</t>
-  </si>
-  <si>
-    <t>Qian</t>
-  </si>
-  <si>
-    <t>Cham</t>
-  </si>
-  <si>
-    <t>I077230</t>
-  </si>
-  <si>
-    <t>Gordon Liu</t>
-  </si>
-  <si>
-    <t>Jinguo</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>I300463</t>
-  </si>
-  <si>
-    <t>Zachary Li</t>
-  </si>
-  <si>
-    <t>Yixuan</t>
-  </si>
-  <si>
-    <t>Zachary</t>
+    <t>I327506</t>
+  </si>
+  <si>
+    <t>Adam Wang</t>
+  </si>
+  <si>
+    <t>Kechen</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Developer Associate</t>
+  </si>
+  <si>
+    <t>I329682</t>
+  </si>
+  <si>
+    <t>Jerry Liu</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>I338782</t>
+  </si>
+  <si>
+    <t>William Ye</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>Shengren</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>I339354</t>
+  </si>
+  <si>
+    <t>Andy Feng</t>
+  </si>
+  <si>
+    <t>Feng</t>
+  </si>
+  <si>
+    <t>Jiawei</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>User Experience Design Specialist</t>
+  </si>
+  <si>
+    <t>I340146</t>
+  </si>
+  <si>
+    <t>Thomas Hu</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>Ming</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>I342835</t>
+  </si>
+  <si>
+    <t>Lucas Liu</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>I052252</t>
+  </si>
+  <si>
+    <t>Buffon Sun</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Bufeng</t>
+  </si>
+  <si>
+    <t>Buffon</t>
+  </si>
+  <si>
+    <t>I349262</t>
+  </si>
+  <si>
+    <t>Dong Liyan</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Liyan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>I321714</t>
+  </si>
+  <si>
+    <t>Zhou Kaiyuan</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>Kaiyuan</t>
+  </si>
+  <si>
+    <t>I518769</t>
+  </si>
+  <si>
+    <t>Allen Xiong</t>
+  </si>
+  <si>
+    <t>Xiong</t>
+  </si>
+  <si>
+    <t>Jie</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>I039142</t>
+  </si>
+  <si>
+    <t>Trevor Zhang</t>
+  </si>
+  <si>
+    <t>Tonghe</t>
+  </si>
+  <si>
+    <t>Trevor</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>I300974</t>
-  </si>
-  <si>
-    <t>Helene Chen</t>
-  </si>
-  <si>
-    <t>Xiaoyi</t>
-  </si>
-  <si>
-    <t>Helene</t>
-  </si>
-  <si>
-    <t>Senior User Experience Design Specialist</t>
-  </si>
-  <si>
-    <t>I306429</t>
-  </si>
-  <si>
-    <t>Telford Zhao</t>
-  </si>
-  <si>
-    <t>Zhao</t>
-  </si>
-  <si>
-    <t>Tiefu</t>
-  </si>
-  <si>
-    <t>Telford</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>I308164</t>
-  </si>
-  <si>
-    <t>Roy Shao</t>
-  </si>
-  <si>
-    <t>Shao</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Quality Specialist</t>
-  </si>
-  <si>
-    <t>I308454</t>
-  </si>
-  <si>
-    <t>Cao Li</t>
-  </si>
-  <si>
-    <t>Cao</t>
-  </si>
-  <si>
-    <t>I309938</t>
-  </si>
-  <si>
-    <t>Alex Li</t>
-  </si>
-  <si>
-    <t>Zhen</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>I313530</t>
-  </si>
-  <si>
-    <t>Zhao Luyi</t>
-  </si>
-  <si>
-    <t>Luyi</t>
-  </si>
-  <si>
-    <t>I322858</t>
-  </si>
-  <si>
-    <t>Li Linju</t>
-  </si>
-  <si>
-    <t>Linju</t>
-  </si>
-  <si>
-    <t>I323866</t>
-  </si>
-  <si>
-    <t>Chen Qi</t>
-  </si>
-  <si>
-    <t>Qi</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>I324508</t>
-  </si>
-  <si>
-    <t>Felix Huang</t>
-  </si>
-  <si>
-    <t>Zehao</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>I324714</t>
-  </si>
-  <si>
-    <t>Meng Di</t>
-  </si>
-  <si>
-    <t>Di</t>
-  </si>
-  <si>
-    <t>User Assistance Developer Associate</t>
-  </si>
-  <si>
-    <t>I326827</t>
-  </si>
-  <si>
-    <t>Jeremy Wu</t>
-  </si>
-  <si>
-    <t>Wu</t>
-  </si>
-  <si>
-    <t>Zhenhao</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>I327506</t>
-  </si>
-  <si>
-    <t>Adam Wang</t>
-  </si>
-  <si>
-    <t>Kechen</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Developer Associate</t>
-  </si>
-  <si>
-    <t>I329682</t>
-  </si>
-  <si>
-    <t>Jerry Liu</t>
-  </si>
-  <si>
-    <t>Jia</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>I338782</t>
-  </si>
-  <si>
-    <t>William Ye</t>
-  </si>
-  <si>
-    <t>Ye</t>
-  </si>
-  <si>
-    <t>Shengren</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>I339354</t>
-  </si>
-  <si>
-    <t>Andy Feng</t>
-  </si>
-  <si>
-    <t>Feng</t>
-  </si>
-  <si>
-    <t>Jiawei</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>User Experience Design Specialist</t>
-  </si>
-  <si>
-    <t>I340146</t>
-  </si>
-  <si>
-    <t>Thomas Hu</t>
-  </si>
-  <si>
-    <t>Hu</t>
-  </si>
-  <si>
-    <t>Ming</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>I342835</t>
-  </si>
-  <si>
-    <t>Lucas Liu</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>I052252</t>
-  </si>
-  <si>
-    <t>Buffon Sun</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Bufeng</t>
-  </si>
-  <si>
-    <t>Buffon</t>
-  </si>
-  <si>
-    <t>I349262</t>
-  </si>
-  <si>
-    <t>Dong Liyan</t>
-  </si>
-  <si>
-    <t>Dong</t>
-  </si>
-  <si>
-    <t>Liyan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>I321714</t>
-  </si>
-  <si>
-    <t>Zhou Kaiyuan</t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>Kaiyuan</t>
-  </si>
-  <si>
-    <t>I518769</t>
-  </si>
-  <si>
-    <t>Allen Xiong</t>
-  </si>
-  <si>
-    <t>Xiong</t>
-  </si>
-  <si>
-    <t>Jie</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>I039142</t>
-  </si>
-  <si>
-    <t>Trevor Zhang</t>
-  </si>
-  <si>
-    <t>Tonghe</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
     <t>I055660</t>
   </si>
   <si>
@@ -1157,6 +1157,9 @@
   </si>
   <si>
     <t>Ray</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>I070635</t>
@@ -1253,7 +1256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1284,6 +1287,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1478,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1575,9 +1583,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1597,6 +1602,33 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,10 +2420,10 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2404,61 +2436,61 @@
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
     <col min="9" max="19" width="12.86328125" style="1" customWidth="1"/>
-    <col min="20" max="22" width="9.1328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1328125" style="1"/>
+    <col min="20" max="23" width="9.1328125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40">
+      <c r="I1" s="48">
         <v>43678</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="40">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="48">
         <v>43709</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="32" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2592,12 +2624,14 @@
       <c r="N4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="P4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>44</v>
@@ -2608,20 +2642,20 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>42</v>
@@ -2630,7 +2664,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>44</v>
@@ -2665,36 +2699,36 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="21"/>
@@ -2703,7 +2737,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -2714,14 +2748,14 @@
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>42</v>
@@ -2778,7 +2812,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>66</v>
@@ -2835,7 +2869,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>74</v>
@@ -2844,7 +2878,7 @@
         <v>75</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="23"/>
@@ -2852,7 +2886,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="18"/>
@@ -2876,7 +2910,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>81</v>
@@ -2913,7 +2947,7 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>81</v>
@@ -2922,7 +2956,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="23"/>
@@ -2943,7 +2977,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>89</v>
@@ -2952,7 +2986,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>91</v>
@@ -2967,25 +3001,25 @@
       <c r="K12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>94</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="21" t="s">
-        <v>45</v>
+      <c r="N12" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -3003,42 +3037,44 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19" t="s">
         <v>67</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="34" t="s">
-        <v>51</v>
+      <c r="M13" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="P13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -3058,7 +3094,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
@@ -3067,33 +3103,35 @@
       <c r="I14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="21"/>
+      <c r="N14" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="P14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -3104,7 +3142,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
@@ -3132,12 +3170,12 @@
       <c r="M15" s="18"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S15" s="23"/>
     </row>
@@ -3169,42 +3207,42 @@
       <c r="I16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="35" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>45</v>
+      <c r="L16" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="21"/>
       <c r="O16" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>108</v>
@@ -3220,36 +3258,36 @@
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="18"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>108</v>
@@ -3267,7 +3305,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="21"/>
       <c r="O18" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="16"/>
@@ -3276,16 +3314,16 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="18" t="s">
@@ -3295,51 +3333,51 @@
         <v>66</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="23" t="s">
-        <v>45</v>
+      <c r="N19" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>108</v>
@@ -3351,42 +3389,42 @@
         <v>82</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="21" t="s">
-        <v>45</v>
+      <c r="N20" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>108</v>
@@ -3395,48 +3433,48 @@
         <v>91</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P21" s="23"/>
       <c r="Q21" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="16" t="s">
@@ -3446,48 +3484,48 @@
         <v>114</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="21"/>
       <c r="O22" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="18" t="s">
@@ -3500,31 +3538,31 @@
         <v>82</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="18"/>
-      <c r="K23" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>146</v>
+      <c r="K23" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="M23" s="18"/>
-      <c r="N23" s="23" t="s">
-        <v>45</v>
+      <c r="N23" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S23" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -3553,28 +3591,28 @@
         <v>152</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="37" t="s">
         <v>93</v>
       </c>
       <c r="M24" s="16"/>
-      <c r="N24" s="21" t="s">
-        <v>45</v>
+      <c r="N24" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S24" s="21"/>
     </row>
@@ -3608,7 +3646,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="18"/>
@@ -3623,7 +3661,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>159</v>
@@ -3641,26 +3679,26 @@
         <v>82</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J26" s="16"/>
-      <c r="K26" s="24" t="s">
-        <v>103</v>
+      <c r="K26" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R26" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -3694,24 +3732,24 @@
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="38" t="s">
         <v>93</v>
       </c>
       <c r="M27" s="18"/>
-      <c r="N27" s="23" t="s">
-        <v>45</v>
+      <c r="N27" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S27" s="23"/>
     </row>
@@ -3747,83 +3785,83 @@
       <c r="K28" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="38" t="s">
-        <v>169</v>
+      <c r="L28" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="21"/>
       <c r="O28" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>115</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>146</v>
+      <c r="K29" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="18"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>108</v>
@@ -3835,93 +3873,93 @@
         <v>82</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="38" t="s">
-        <v>180</v>
+      <c r="L30" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="M30" s="16"/>
-      <c r="N30" s="21" t="s">
-        <v>45</v>
+      <c r="N30" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S30" s="21"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P31" s="23"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>101</v>
@@ -3947,30 +3985,30 @@
       <c r="M32" s="16"/>
       <c r="N32" s="21"/>
       <c r="O32" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>108</v>
@@ -3982,39 +4020,39 @@
         <v>92</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="18"/>
-      <c r="K33" s="25" t="s">
-        <v>103</v>
+      <c r="K33" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="18"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P33" s="23"/>
       <c r="Q33" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="16" t="s">
@@ -4027,37 +4065,37 @@
         <v>92</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="16"/>
       <c r="N34" s="21"/>
       <c r="O34" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S34" s="21"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="18" t="s">
@@ -4070,7 +4108,7 @@
         <v>82</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J35" s="18"/>
       <c r="K35" s="23"/>
@@ -4078,7 +4116,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P35" s="23"/>
       <c r="Q35" s="18"/>
@@ -4087,16 +4125,16 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="16" t="s">
@@ -4109,46 +4147,46 @@
         <v>152</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="37" t="s">
         <v>68</v>
       </c>
       <c r="M36" s="16"/>
-      <c r="N36" s="21" t="s">
-        <v>45</v>
+      <c r="N36" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S36" s="21"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>108</v>
@@ -4163,88 +4201,88 @@
         <v>93</v>
       </c>
       <c r="J37" s="18"/>
-      <c r="K37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>45</v>
+      <c r="K37" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P37" s="23"/>
       <c r="Q37" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S37" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>115</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>146</v>
+      <c r="K38" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="16"/>
       <c r="N38" s="21"/>
       <c r="O38" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P38" s="21"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S38" s="21"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>108</v>
@@ -4259,92 +4297,92 @@
         <v>68</v>
       </c>
       <c r="J39" s="18"/>
-      <c r="K39" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>45</v>
+      <c r="K39" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="M39" s="18"/>
-      <c r="N39" s="23" t="s">
-        <v>45</v>
+      <c r="N39" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>92</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="16"/>
       <c r="N40" s="21"/>
       <c r="O40" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P40" s="21"/>
       <c r="Q40" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S40" s="21"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>108</v>
@@ -4358,40 +4396,40 @@
       <c r="I41" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J41" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>45</v>
+      <c r="J41" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="18"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P41" s="23"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>108</v>
@@ -4405,48 +4443,48 @@
       <c r="I42" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="35" t="s">
         <v>93</v>
       </c>
       <c r="K42" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="21" t="s">
-        <v>45</v>
+      <c r="L42" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="M42" s="16"/>
       <c r="N42" s="21"/>
       <c r="O42" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S42" s="21"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>115</v>
@@ -4454,42 +4492,42 @@
       <c r="I43" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>51</v>
+      <c r="K43" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P43" s="23"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>108</v>
@@ -4501,7 +4539,7 @@
         <v>92</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="24" t="s">
@@ -4511,81 +4549,81 @@
       <c r="M44" s="16"/>
       <c r="N44" s="21"/>
       <c r="O44" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P44" s="21"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S44" s="21"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>92</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N45" s="23"/>
       <c r="O45" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P45" s="23"/>
       <c r="Q45" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>108</v>
@@ -4601,80 +4639,80 @@
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="24" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="16"/>
       <c r="N46" s="21"/>
       <c r="O46" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P46" s="21"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S46" s="21"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L47" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K47" s="41" t="s">
         <v>103</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P47" s="23"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="16" t="s">
@@ -4687,40 +4725,40 @@
         <v>92</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="16"/>
       <c r="N48" s="21"/>
       <c r="O48" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P48" s="21"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S48" s="21"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>108</v>
@@ -4734,44 +4772,44 @@
       <c r="I49" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J49" s="37" t="s">
-        <v>51</v>
+      <c r="J49" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="K49" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="38" t="s">
         <v>93</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P49" s="23"/>
       <c r="Q49" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R49" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>108</v>
@@ -4780,38 +4818,38 @@
         <v>66</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>169</v>
+        <v>50</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="M50" s="16"/>
-      <c r="N50" s="21" t="s">
-        <v>45</v>
+      <c r="N50" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4825,10 +4863,10 @@
         <v>39</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>269</v>
@@ -4873,13 +4911,13 @@
         <v>269</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="24" t="s">
@@ -4887,16 +4925,16 @@
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="21" t="s">
-        <v>45</v>
+      <c r="N52" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S52" s="21"/>
     </row>
@@ -4923,36 +4961,36 @@
         <v>280</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J53" s="37" t="s">
+      <c r="J53" s="36" t="s">
         <v>93</v>
       </c>
       <c r="K53" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L53" s="39" t="s">
-        <v>202</v>
+      <c r="L53" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="M53" s="18"/>
-      <c r="N53" s="23" t="s">
-        <v>45</v>
+      <c r="N53" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O53" s="23"/>
       <c r="P53" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R53" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S53" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -4973,13 +5011,13 @@
         <v>269</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="24" t="s">
@@ -4987,14 +5025,14 @@
       </c>
       <c r="L54" s="21"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="21" t="s">
-        <v>45</v>
+      <c r="N54" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S54" s="21"/>
     </row>
@@ -5024,13 +5062,13 @@
         <v>92</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="34" t="s">
-        <v>253</v>
+        <v>50</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>252</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L55" s="23"/>
       <c r="M55" s="18"/>
@@ -5039,10 +5077,10 @@
       <c r="P55" s="23"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S55" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
@@ -5077,14 +5115,14 @@
       <c r="K56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L56" s="37" t="s">
         <v>93</v>
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="21"/>
@@ -5118,17 +5156,17 @@
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="23"/>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="38" t="s">
         <v>94</v>
       </c>
       <c r="M57" s="18"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R57" s="23"/>
       <c r="S57" s="23"/>
@@ -5172,7 +5210,7 @@
       <c r="P58" s="21"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S58" s="21"/>
     </row>
@@ -5190,7 +5228,7 @@
         <v>307</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>269</v>
@@ -5202,33 +5240,35 @@
         <v>92</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="J59" s="18"/>
+        <v>266</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="K59" s="25" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N59" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N59" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O59" s="23"/>
       <c r="P59" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S59" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
@@ -5251,10 +5291,10 @@
         <v>269</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -5294,10 +5334,10 @@
         <v>92</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J61" s="34" t="s">
-        <v>51</v>
+        <v>116</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="K61" s="25" t="s">
         <v>93</v>
@@ -5308,13 +5348,13 @@
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S61" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -5372,35 +5412,35 @@
         <v>269</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J63" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="33" t="s">
         <v>94</v>
       </c>
       <c r="K63" s="25" t="s">
         <v>93</v>
       </c>
       <c r="L63" s="23"/>
-      <c r="M63" s="34" t="s">
+      <c r="M63" s="33" t="s">
         <v>93</v>
       </c>
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R63" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S63" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -5417,7 +5457,7 @@
         <v>269</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H64" s="31" t="s">
         <v>115</v>
@@ -5430,14 +5470,14 @@
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
       <c r="P64" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q64" s="18"/>
       <c r="R64" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S64" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -5448,7 +5488,7 @@
         <v>327</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>328</v>
@@ -5460,37 +5500,37 @@
         <v>269</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L65" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="L65" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="M65" s="23"/>
-      <c r="N65" s="23" t="s">
-        <v>45</v>
+      <c r="N65" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="O65" s="23"/>
       <c r="P65" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q65" s="18"/>
       <c r="R65" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S65" s="23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
@@ -5519,31 +5559,31 @@
         <v>67</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="21"/>
-      <c r="L66" s="38" t="s">
-        <v>146</v>
+      <c r="L66" s="37" t="s">
+        <v>214</v>
       </c>
       <c r="M66" s="16"/>
-      <c r="N66" s="21" t="s">
-        <v>45</v>
+      <c r="N66" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R66" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
@@ -5566,35 +5606,35 @@
         <v>82</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="35" t="s">
-        <v>253</v>
+        <v>58</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L67" s="33" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="L67" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N67" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O67" s="16"/>
       <c r="P67" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R67" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S67" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -5605,7 +5645,7 @@
         <v>335</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
@@ -5617,37 +5657,37 @@
       <c r="G68" s="18"/>
       <c r="H68" s="19"/>
       <c r="I68" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>180</v>
+        <v>50</v>
+      </c>
+      <c r="J68" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="K68" s="20" t="s">
         <v>68</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M68" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M68" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N68" s="18" t="s">
-        <v>45</v>
+      <c r="N68" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
@@ -5672,35 +5712,35 @@
       <c r="I69" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="33" t="s">
-        <v>202</v>
+      <c r="J69" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="K69" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L69" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M69" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>45</v>
+      <c r="L69" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="M69" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N69" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P69" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R69" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -5723,37 +5763,37 @@
       <c r="G70" s="18"/>
       <c r="H70" s="19"/>
       <c r="I70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N70" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
@@ -5768,7 +5808,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F71" s="16" t="s">
         <v>337</v>
@@ -5776,37 +5816,37 @@
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J71" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="M71" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M71" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="N71" s="16" t="s">
-        <v>45</v>
+      <c r="N71" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P71" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R71" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
@@ -5817,7 +5857,7 @@
         <v>348</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -5829,37 +5869,37 @@
       <c r="G72" s="18"/>
       <c r="H72" s="19"/>
       <c r="I72" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J72" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="36" t="s">
         <v>68</v>
       </c>
       <c r="K72" s="20" t="s">
         <v>93</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M72" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M72" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N72" s="18" t="s">
-        <v>45</v>
+      <c r="N72" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S72" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -5882,51 +5922,51 @@
       <c r="G73" s="16"/>
       <c r="H73" s="17"/>
       <c r="I73" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J73" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>68</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L73" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M73" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M73" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="N73" s="16" t="s">
-        <v>45</v>
+      <c r="N73" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="18" t="s">
@@ -5937,50 +5977,50 @@
       <c r="I74" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="34" t="s">
-        <v>202</v>
+      <c r="J74" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N74" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S74" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>337</v>
@@ -5988,51 +6028,51 @@
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M75" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N75" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S75" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="18" t="s">
@@ -6041,51 +6081,51 @@
       <c r="G76" s="18"/>
       <c r="H76" s="19"/>
       <c r="I76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N76" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="16" t="s">
@@ -6094,52 +6134,52 @@
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>202</v>
+        <v>58</v>
+      </c>
+      <c r="J77" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N77" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S77" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>337</v>
@@ -6147,52 +6187,52 @@
       <c r="G78" s="18"/>
       <c r="H78" s="19"/>
       <c r="I78" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N78" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S78" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>306</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>337</v>
@@ -6200,52 +6240,52 @@
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J79" s="33" t="s">
-        <v>146</v>
+        <v>214</v>
+      </c>
+      <c r="J79" s="32" t="s">
+        <v>214</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>68</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M79" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N79" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S79" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>337</v>
@@ -6253,52 +6293,52 @@
       <c r="G80" s="18"/>
       <c r="H80" s="19"/>
       <c r="I80" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="L80" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N80" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S80" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>337</v>
@@ -6309,52 +6349,52 @@
         <v>93</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M81" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N81" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S81" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -6362,26 +6402,26 @@
         <v>44</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6406,6 +6446,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100099975770C1F1147804C2B8EA59B7744" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="449a151c82d64f5fb2f07b6eeab9cc56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff4e4123-c072-43f7-8ca2-317c8e6eca2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee3512447ab763bfc9d78f4694d5743c" ns2:_="">
     <xsd:import namespace="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
@@ -6537,23 +6592,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8147BA37-0A84-40D1-B6E1-3ABF3F96C592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B176E064-9437-41A8-B561-BD64CA049106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70BBA54C-6A36-4007-821A-D5947083342F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10148454-9C33-4BA1-B41D-6C8C69228E1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6568,28 +6632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{061ED646-E56B-4D2A-92F6-EE2181C58515}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{746145FF-1B78-49B7-89C8-C55EEF002280}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Team Ramp-up Tracking.xlsx
+++ b/Team Ramp-up Tracking.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAP\SAP_Projects\SME\SME WIP\Ramp-up Plan\Status Tracking\Team-Ramp-up\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5D7EC3-3FBE-4936-8EC9-8EEDDBFD1FDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -77,12 +71,12 @@
     <definedName name="I349262_">Tracking!$C$47:$M$47</definedName>
     <definedName name="I518769_">Tracking!$C$49:$M$49</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="375">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -138,22 +132,6 @@
 (SD/ARC)</t>
   </si>
   <si>
-    <t>7. Jira Advanced Topic
-(ALL)</t>
-  </si>
-  <si>
-    <t>8. X4 UI Architecture</t>
-  </si>
-  <si>
-    <t>9. PostgreSQL Lock</t>
-  </si>
-  <si>
-    <t>10. Docker Introduction</t>
-  </si>
-  <si>
-    <t>11. CI/CD</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -191,21 +169,6 @@
   </si>
   <si>
     <t>Column13</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
-  </si>
-  <si>
-    <t>Column19</t>
   </si>
   <si>
     <t>I010810</t>
@@ -1255,8 +1218,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1298,6 +1261,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1486,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1634,6 +1603,9 @@
     <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1663,7 +1635,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1694,7 +1665,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1727,7 +1697,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1760,7 +1729,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1793,7 +1761,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1826,7 +1793,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1859,7 +1825,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1892,7 +1857,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1925,7 +1889,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1958,7 +1921,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1991,7 +1953,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2020,7 +1981,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -2051,7 +2011,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2096,7 +2055,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2117,7 +2075,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2151,22 +2108,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:M81" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A3:M81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M81" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A3:M81"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="12"/>
+    <tableColumn id="14" name="Column14" dataDxfId="11"/>
+    <tableColumn id="2" name="Column2" dataDxfId="10"/>
+    <tableColumn id="3" name="Column3" dataDxfId="9"/>
+    <tableColumn id="4" name="Column4" dataDxfId="8"/>
+    <tableColumn id="5" name="Column5" dataDxfId="7"/>
+    <tableColumn id="6" name="Column6" dataDxfId="6"/>
+    <tableColumn id="7" name="Column7" dataDxfId="5"/>
+    <tableColumn id="8" name="Column8" dataDxfId="4"/>
+    <tableColumn id="9" name="Column9" dataDxfId="3"/>
+    <tableColumn id="11" name="Column11" dataDxfId="2"/>
+    <tableColumn id="12" name="Column12" dataDxfId="1"/>
+    <tableColumn id="13" name="Column13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2215,7 +2172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Wisp">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -2250,7 +2207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -2409,87 +2366,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Wisp" id="{7CB32D59-10C0-40DD-B7BD-2E94284A981C}" vid="{24B1A44C-C006-48B2-A4D7-E5549B3D8CD4}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Wisp" id="{7CB32D59-10C0-40DD-B7BD-2E94284A981C}" vid="{24B1A44C-C006-48B2-A4D7-E5549B3D8CD4}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
-    <col min="9" max="19" width="12.86328125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="9.1328125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1328125" style="1"/>
+    <col min="9" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="49">
         <v>43678</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="48">
         <v>43709</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="39" t="s">
         <v>8</v>
       </c>
@@ -2508,795 +2460,611 @@
       <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="N3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="18"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="16"/>
       <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="18"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="18"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="23"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="18"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -3304,340 +3072,259 @@
       <c r="L18" s="21"/>
       <c r="M18" s="16"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S19" s="23"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="16"/>
       <c r="N20" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="21"/>
-      <c r="O22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="41" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="18"/>
@@ -3645,1656 +3332,1313 @@
       <c r="L25" s="23"/>
       <c r="M25" s="18"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="40" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N26" s="21"/>
-      <c r="O26" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="23" t="s">
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="41" t="s">
         <v>58</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="18"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="23"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M30" s="16"/>
       <c r="N30" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="16"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S32" s="21"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="41" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="18"/>
       <c r="N33" s="23"/>
-      <c r="O33" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S33" s="23"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="16"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J35" s="18"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="18"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S36" s="21"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="41" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S37" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="16"/>
       <c r="N38" s="21"/>
-      <c r="O38" s="23" t="s">
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="J39" s="18"/>
       <c r="K39" s="41" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M39" s="18"/>
       <c r="N39" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S39" s="23"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="16"/>
       <c r="N40" s="21"/>
-      <c r="O40" s="23" t="s">
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="41" t="s">
         <v>58</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R40" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S40" s="21"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="18"/>
       <c r="N41" s="23"/>
-      <c r="O41" s="23" t="s">
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S41" s="23"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="L42" s="40" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M42" s="16"/>
       <c r="N42" s="21"/>
-      <c r="O42" s="23" t="s">
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="21" t="s">
+      <c r="K43" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="S42" s="21"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>68</v>
-      </c>
       <c r="L43" s="38" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="23"/>
-      <c r="O43" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S43" s="23"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="16"/>
       <c r="N44" s="21"/>
-      <c r="O44" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S44" s="21"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N45" s="23"/>
-      <c r="O45" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R45" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S45" s="23"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="16"/>
       <c r="N46" s="21"/>
-      <c r="O46" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S46" s="21"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L47" s="41" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="23"/>
-      <c r="O47" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S47" s="23"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="16"/>
       <c r="N48" s="21"/>
-      <c r="O48" s="23" t="s">
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S48" s="21"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>68</v>
-      </c>
       <c r="L49" s="38" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="23"/>
-      <c r="O49" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R49" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S49" s="23"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M50" s="16"/>
       <c r="N50" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O50" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R50" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S50" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J51" s="18"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="18"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="16"/>
       <c r="N52" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O52" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="21" t="s">
+      <c r="L53" s="41" t="s">
         <v>58</v>
-      </c>
-      <c r="S52" s="21"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J53" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="K53" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L53" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="M53" s="18"/>
       <c r="N53" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R53" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S53" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L54" s="21"/>
       <c r="M54" s="16"/>
       <c r="N54" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S54" s="21"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L55" s="23"/>
       <c r="M55" s="18"/>
       <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S55" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="23"/>
       <c r="L57" s="38" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M57" s="18"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L58" s="21"/>
       <c r="M58" s="16"/>
       <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S58" s="21"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R59" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S59" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -5302,85 +4646,69 @@
       <c r="L60" s="21"/>
       <c r="M60" s="16"/>
       <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L61" s="23"/>
       <c r="M61" s="18"/>
       <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -5388,79 +4716,63 @@
       <c r="L62" s="21"/>
       <c r="M62" s="16"/>
       <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L63" s="23"/>
       <c r="M63" s="33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R63" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S63" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="30"/>
       <c r="F64" s="21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -5468,965 +4780,704 @@
       <c r="L64" s="21"/>
       <c r="M64" s="16"/>
       <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S64" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M65" s="23"/>
       <c r="N65" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S65" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="21"/>
       <c r="L66" s="37" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M66" s="16"/>
       <c r="N66" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R66" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J67" s="34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L67" s="32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N67" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="19"/>
       <c r="I68" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K68" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="N68" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M68" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="N68" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O68" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P68" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q68" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R68" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S68" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="M69" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L69" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="N69" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S69" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="19"/>
       <c r="I70" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N70" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O70" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P70" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q70" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R70" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S70" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L71" s="42" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N71" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S71" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="19"/>
       <c r="I72" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M72" s="33" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N72" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P72" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q72" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R72" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S72" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="17"/>
       <c r="I73" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="35" t="s">
-        <v>68</v>
-      </c>
       <c r="K73" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L73" s="42" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S73" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="19"/>
       <c r="I74" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N74" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O74" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P74" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q74" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R74" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S74" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="11.25" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M75" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N75" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S75" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="19"/>
       <c r="I76" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N76" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O76" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q76" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R76" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S76" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N77" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S77" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="19"/>
       <c r="I78" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N78" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P78" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q78" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R78" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M79" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N79" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S79" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="19"/>
       <c r="I80" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L80" s="43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N80" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O80" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P80" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="R80" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S80" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M81" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S81" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="29" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="29" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N1:S1"/>
+  <mergeCells count="9">
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:A2"/>
@@ -6437,30 +5488,16 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100099975770C1F1147804C2B8EA59B7744" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="449a151c82d64f5fb2f07b6eeab9cc56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff4e4123-c072-43f7-8ca2-317c8e6eca2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee3512447ab763bfc9d78f4694d5743c" ns2:_="">
     <xsd:import namespace="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
@@ -6592,10 +5629,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8147BA37-0A84-40D1-B6E1-3ABF3F96C592}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10148454-9C33-4BA1-B41D-6C8C69228E1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6617,19 +5679,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10148454-9C33-4BA1-B41D-6C8C69228E1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8147BA37-0A84-40D1-B6E1-3ABF3F96C592}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff4e4123-c072-43f7-8ca2-317c8e6eca2e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>